--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Avance Technologies Ltd/Pruned_Excel/Final_Parameters/Avance Technologies Ltd_Cleaned_Data_Updated.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Avance Technologies Ltd/Pruned_Excel/Final_Parameters/Avance Technologies Ltd_Cleaned_Data_Updated.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="141">
   <si>
     <t>Balance Sheet of Avance Technologies(in Rs. Cr.)</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>P/l before exceptional items &amp; tax</t>
+  </si>
+  <si>
+    <t>Exceptional items</t>
   </si>
   <si>
     <t>P/l before tax</t>
@@ -3042,13 +3045,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -3109,10 +3112,13 @@
       <c r="T1" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>25.73</v>
@@ -3138,22 +3144,22 @@
       <c r="K2">
         <v>0.21</v>
       </c>
-      <c r="L2">
-        <v>0.21</v>
-      </c>
-      <c r="N2">
+      <c r="M2">
         <v>0.21</v>
       </c>
       <c r="O2">
         <v>0.21</v>
       </c>
       <c r="P2">
+        <v>0.21</v>
+      </c>
+      <c r="Q2">
         <v>64.04000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3">
         <v>19.94</v>
@@ -3179,22 +3185,22 @@
       <c r="K3">
         <v>0.13</v>
       </c>
-      <c r="L3">
-        <v>0.13</v>
-      </c>
-      <c r="N3">
+      <c r="M3">
         <v>0.13</v>
       </c>
       <c r="O3">
         <v>0.13</v>
       </c>
       <c r="P3">
+        <v>0.13</v>
+      </c>
+      <c r="Q3">
         <v>64.04000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>18.11</v>
@@ -3217,22 +3223,22 @@
       <c r="K4">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L4">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N4">
+      <c r="M4">
         <v>0.07000000000000001</v>
       </c>
       <c r="O4">
         <v>0.07000000000000001</v>
       </c>
       <c r="P4">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q4">
         <v>64.04000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5">
         <v>19.21</v>
@@ -3258,22 +3264,22 @@
       <c r="K5">
         <v>0.1</v>
       </c>
-      <c r="L5">
-        <v>0.1</v>
-      </c>
-      <c r="N5">
+      <c r="M5">
         <v>0.1</v>
       </c>
       <c r="O5">
         <v>0.1</v>
       </c>
       <c r="P5">
+        <v>0.1</v>
+      </c>
+      <c r="Q5">
         <v>64.04000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B6">
         <v>24.79</v>
@@ -3303,19 +3309,19 @@
         <v>0.11</v>
       </c>
       <c r="L6">
-        <v>-3.74</v>
-      </c>
-      <c r="N6">
+        <v>-3.85</v>
+      </c>
+      <c r="M6">
         <v>-3.74</v>
       </c>
       <c r="O6">
         <v>-3.74</v>
       </c>
       <c r="P6">
+        <v>-3.74</v>
+      </c>
+      <c r="Q6">
         <v>64.04000000000001</v>
-      </c>
-      <c r="Q6">
-        <v>-0.06</v>
       </c>
       <c r="R6">
         <v>-0.06</v>
@@ -3326,10 +3332,13 @@
       <c r="T6">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7">
         <v>32.16</v>
@@ -3361,22 +3370,22 @@
       <c r="K7">
         <v>0.3</v>
       </c>
-      <c r="L7">
-        <v>0.3</v>
-      </c>
-      <c r="N7">
+      <c r="M7">
         <v>0.3</v>
       </c>
       <c r="O7">
         <v>0.3</v>
       </c>
       <c r="P7">
+        <v>0.3</v>
+      </c>
+      <c r="Q7">
         <v>198.19</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <v>27.8</v>
@@ -3402,22 +3411,22 @@
       <c r="K8">
         <v>0.23</v>
       </c>
-      <c r="L8">
-        <v>0.23</v>
-      </c>
-      <c r="N8">
+      <c r="M8">
         <v>0.23</v>
       </c>
       <c r="O8">
         <v>0.23</v>
       </c>
       <c r="P8">
+        <v>0.23</v>
+      </c>
+      <c r="Q8">
         <v>64.04000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>29.64</v>
@@ -3443,22 +3452,22 @@
       <c r="K9">
         <v>0.11</v>
       </c>
-      <c r="L9">
-        <v>0.11</v>
-      </c>
-      <c r="N9">
+      <c r="M9">
         <v>0.11</v>
       </c>
       <c r="O9">
         <v>0.11</v>
       </c>
       <c r="P9">
+        <v>0.11</v>
+      </c>
+      <c r="Q9">
         <v>198.19</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>21.45</v>
@@ -3485,21 +3494,24 @@
         <v>1.34</v>
       </c>
       <c r="L10">
-        <v>0.14</v>
-      </c>
-      <c r="N10">
+        <v>-1.2</v>
+      </c>
+      <c r="M10">
         <v>0.14</v>
       </c>
       <c r="O10">
         <v>0.14</v>
       </c>
       <c r="P10">
+        <v>0.14</v>
+      </c>
+      <c r="Q10">
         <v>198.19</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>27.38</v>
@@ -3528,23 +3540,20 @@
       <c r="K11">
         <v>-1.79</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-1.79</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-0.04</v>
-      </c>
-      <c r="N11">
-        <v>-1.75</v>
       </c>
       <c r="O11">
         <v>-1.75</v>
       </c>
       <c r="P11">
+        <v>-1.75</v>
+      </c>
+      <c r="Q11">
         <v>198.19</v>
-      </c>
-      <c r="Q11">
-        <v>-0.01</v>
       </c>
       <c r="R11">
         <v>-0.01</v>
@@ -3555,10 +3564,13 @@
       <c r="T11">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B12">
         <v>28.88</v>
@@ -3584,22 +3596,22 @@
       <c r="K12">
         <v>0.32</v>
       </c>
-      <c r="L12">
-        <v>0.32</v>
-      </c>
-      <c r="N12">
+      <c r="M12">
         <v>0.32</v>
       </c>
       <c r="O12">
         <v>0.32</v>
       </c>
       <c r="P12">
+        <v>0.32</v>
+      </c>
+      <c r="Q12">
         <v>198.19</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B13">
         <v>22.18</v>
@@ -3625,22 +3637,22 @@
       <c r="K13">
         <v>0.08</v>
       </c>
-      <c r="L13">
-        <v>0.08</v>
-      </c>
-      <c r="N13">
+      <c r="M13">
         <v>0.08</v>
       </c>
       <c r="O13">
         <v>0.08</v>
       </c>
       <c r="P13">
+        <v>0.08</v>
+      </c>
+      <c r="Q13">
         <v>198.19</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B14">
         <v>24.09</v>
@@ -3663,22 +3675,22 @@
       <c r="K14">
         <v>0.12</v>
       </c>
-      <c r="L14">
-        <v>0.12</v>
-      </c>
-      <c r="N14">
+      <c r="M14">
         <v>0.12</v>
       </c>
       <c r="O14">
         <v>0.12</v>
       </c>
       <c r="P14">
+        <v>0.12</v>
+      </c>
+      <c r="Q14">
         <v>198.19</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B15">
         <v>22.36</v>
@@ -3701,22 +3713,22 @@
       <c r="K15">
         <v>0.08</v>
       </c>
-      <c r="L15">
-        <v>0.08</v>
-      </c>
-      <c r="N15">
+      <c r="M15">
         <v>0.08</v>
       </c>
       <c r="O15">
         <v>0.08</v>
       </c>
       <c r="P15">
+        <v>0.08</v>
+      </c>
+      <c r="Q15">
         <v>198.19</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16">
         <v>21.65</v>
@@ -3745,23 +3757,20 @@
       <c r="K16">
         <v>-1.67</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-1.67</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
-        <v>-1.67</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>-1.67</v>
       </c>
       <c r="P16">
+        <v>-1.67</v>
+      </c>
+      <c r="Q16">
         <v>198.19</v>
-      </c>
-      <c r="Q16">
-        <v>-0.01</v>
       </c>
       <c r="R16">
         <v>-0.01</v>
@@ -3772,10 +3781,13 @@
       <c r="T16">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B17">
         <v>5.92</v>
@@ -3798,22 +3810,22 @@
       <c r="K17">
         <v>0.05</v>
       </c>
-      <c r="L17">
-        <v>0.05</v>
-      </c>
-      <c r="N17">
+      <c r="M17">
         <v>0.05</v>
       </c>
       <c r="O17">
         <v>0.05</v>
       </c>
       <c r="P17">
+        <v>0.05</v>
+      </c>
+      <c r="Q17">
         <v>198.19</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B18">
         <v>4.19</v>
@@ -3839,22 +3851,22 @@
       <c r="K18">
         <v>0.04</v>
       </c>
-      <c r="L18">
-        <v>0.04</v>
-      </c>
-      <c r="N18">
+      <c r="M18">
         <v>0.04</v>
       </c>
       <c r="O18">
         <v>0.04</v>
       </c>
       <c r="P18">
+        <v>0.04</v>
+      </c>
+      <c r="Q18">
         <v>198.19</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B19">
         <v>11.71</v>
@@ -3880,22 +3892,22 @@
       <c r="K19">
         <v>0.04</v>
       </c>
-      <c r="L19">
-        <v>0.04</v>
-      </c>
-      <c r="N19">
+      <c r="M19">
         <v>0.04</v>
       </c>
       <c r="O19">
         <v>0.04</v>
       </c>
       <c r="P19">
+        <v>0.04</v>
+      </c>
+      <c r="Q19">
         <v>198.19</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20">
         <v>21.29</v>
@@ -3924,25 +3936,25 @@
       <c r="K20">
         <v>-0.06</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-0.06</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>-0.06</v>
       </c>
       <c r="P20">
+        <v>-0.06</v>
+      </c>
+      <c r="Q20">
         <v>198.19</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B21">
         <v>7.41</v>
@@ -3971,25 +3983,25 @@
       <c r="K21">
         <v>0.04</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.04</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.05</v>
-      </c>
-      <c r="N21">
-        <v>-0.01</v>
       </c>
       <c r="O21">
         <v>-0.01</v>
       </c>
       <c r="P21">
+        <v>-0.01</v>
+      </c>
+      <c r="Q21">
         <v>198.19</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B22">
         <v>0.36</v>
@@ -4012,20 +4024,17 @@
       <c r="K22">
         <v>0.01</v>
       </c>
-      <c r="L22">
-        <v>0.01</v>
-      </c>
-      <c r="N22">
+      <c r="M22">
         <v>0.01</v>
       </c>
       <c r="O22">
         <v>0.01</v>
       </c>
       <c r="P22">
+        <v>0.01</v>
+      </c>
+      <c r="Q22">
         <v>198.19</v>
-      </c>
-      <c r="Q22">
-        <v>0.01</v>
       </c>
       <c r="R22">
         <v>0.01</v>
@@ -4036,10 +4045,13 @@
       <c r="T22">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C23">
         <v>5.05</v>
@@ -4062,20 +4074,17 @@
       <c r="K23">
         <v>0.16</v>
       </c>
-      <c r="L23">
-        <v>0.16</v>
-      </c>
-      <c r="N23">
+      <c r="M23">
         <v>0.16</v>
       </c>
       <c r="O23">
         <v>0.16</v>
       </c>
       <c r="P23">
+        <v>0.16</v>
+      </c>
+      <c r="Q23">
         <v>198.19</v>
-      </c>
-      <c r="Q23">
-        <v>0.01</v>
       </c>
       <c r="R23">
         <v>0.01</v>
@@ -4086,10 +4095,13 @@
       <c r="T23">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>4.99</v>
@@ -4112,28 +4124,28 @@
       <c r="K24">
         <v>0.48</v>
       </c>
-      <c r="L24">
-        <v>0.48</v>
-      </c>
-      <c r="N24">
+      <c r="M24">
         <v>0.48</v>
       </c>
       <c r="O24">
         <v>0.48</v>
       </c>
       <c r="P24">
+        <v>0.48</v>
+      </c>
+      <c r="Q24">
         <v>198.19</v>
-      </c>
-      <c r="S24">
-        <v>0.02</v>
       </c>
       <c r="T24">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B25">
         <v>5.19</v>
@@ -4159,22 +4171,22 @@
       <c r="K25">
         <v>0.04</v>
       </c>
-      <c r="L25">
-        <v>0.04</v>
-      </c>
-      <c r="N25">
+      <c r="M25">
         <v>0.04</v>
       </c>
       <c r="O25">
         <v>0.04</v>
       </c>
       <c r="P25">
+        <v>0.04</v>
+      </c>
+      <c r="Q25">
         <v>198.19</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B26">
         <v>3.04</v>
@@ -4204,22 +4216,22 @@
         <v>0.1</v>
       </c>
       <c r="L26">
+        <v>-21.5</v>
+      </c>
+      <c r="M26">
         <v>-21.4</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.2</v>
-      </c>
-      <c r="N26">
-        <v>-21.6</v>
       </c>
       <c r="O26">
         <v>-21.6</v>
       </c>
       <c r="P26">
+        <v>-21.6</v>
+      </c>
+      <c r="Q26">
         <v>198.19</v>
-      </c>
-      <c r="Q26">
-        <v>-1.09</v>
       </c>
       <c r="R26">
         <v>-1.09</v>
@@ -4230,10 +4242,13 @@
       <c r="T26">
         <v>-1.09</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26">
+        <v>-1.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B27">
         <v>0.03</v>
@@ -4257,19 +4272,19 @@
         <v>-0.01</v>
       </c>
       <c r="L27">
-        <v>-5.67</v>
-      </c>
-      <c r="N27">
+        <v>-5.66</v>
+      </c>
+      <c r="M27">
         <v>-5.67</v>
       </c>
       <c r="O27">
         <v>-5.67</v>
       </c>
       <c r="P27">
+        <v>-5.67</v>
+      </c>
+      <c r="Q27">
         <v>198.19</v>
-      </c>
-      <c r="Q27">
-        <v>-0.29</v>
       </c>
       <c r="R27">
         <v>-0.29</v>
@@ -4280,10 +4295,13 @@
       <c r="T27">
         <v>-0.29</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D28">
         <v>0.01</v>
@@ -4301,19 +4319,19 @@
         <v>-0.04</v>
       </c>
       <c r="L28">
-        <v>-3.38</v>
-      </c>
-      <c r="N28">
+        <v>-3.34</v>
+      </c>
+      <c r="M28">
         <v>-3.38</v>
       </c>
       <c r="O28">
         <v>-3.38</v>
       </c>
       <c r="P28">
+        <v>-3.38</v>
+      </c>
+      <c r="Q28">
         <v>198.19</v>
-      </c>
-      <c r="Q28">
-        <v>-0.17</v>
       </c>
       <c r="R28">
         <v>-0.17</v>
@@ -4324,10 +4342,13 @@
       <c r="T28">
         <v>-0.17</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4354,19 +4375,19 @@
         <v>-0.01</v>
       </c>
       <c r="L29">
-        <v>-1.59</v>
-      </c>
-      <c r="N29">
+        <v>-1.58</v>
+      </c>
+      <c r="M29">
         <v>-1.59</v>
       </c>
       <c r="O29">
         <v>-1.59</v>
       </c>
       <c r="P29">
+        <v>-1.59</v>
+      </c>
+      <c r="Q29">
         <v>198.19</v>
-      </c>
-      <c r="Q29">
-        <v>-0.08</v>
       </c>
       <c r="R29">
         <v>-0.08</v>
@@ -4377,10 +4398,13 @@
       <c r="T29">
         <v>-0.08</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B30">
         <v>0.04</v>
@@ -4404,19 +4428,19 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>-1.46</v>
-      </c>
-      <c r="N30">
+        <v>-1.47</v>
+      </c>
+      <c r="M30">
         <v>-1.46</v>
       </c>
       <c r="O30">
         <v>-1.46</v>
       </c>
       <c r="P30">
+        <v>-1.46</v>
+      </c>
+      <c r="Q30">
         <v>198.19</v>
-      </c>
-      <c r="Q30">
-        <v>-0.07000000000000001</v>
       </c>
       <c r="R30">
         <v>-0.07000000000000001</v>
@@ -4427,10 +4451,13 @@
       <c r="T30">
         <v>-0.07000000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B31">
         <v>0.04</v>
@@ -4457,19 +4484,19 @@
         <v>-0.03</v>
       </c>
       <c r="L31">
-        <v>-33.36</v>
-      </c>
-      <c r="N31">
+        <v>-33.34</v>
+      </c>
+      <c r="M31">
         <v>-33.36</v>
       </c>
       <c r="O31">
         <v>-33.36</v>
       </c>
       <c r="P31">
+        <v>-33.36</v>
+      </c>
+      <c r="Q31">
         <v>198.19</v>
-      </c>
-      <c r="Q31">
-        <v>-3.67</v>
       </c>
       <c r="R31">
         <v>-3.67</v>
@@ -4480,10 +4507,13 @@
       <c r="T31">
         <v>-3.67</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31">
+        <v>-3.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B32">
         <v>1.18</v>
@@ -4509,28 +4539,28 @@
       <c r="K32">
         <v>0.05</v>
       </c>
-      <c r="L32">
-        <v>0.05</v>
-      </c>
-      <c r="N32">
+      <c r="M32">
         <v>0.05</v>
       </c>
       <c r="O32">
         <v>0.05</v>
       </c>
       <c r="P32">
+        <v>0.05</v>
+      </c>
+      <c r="Q32">
         <v>198.19</v>
       </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B33">
         <v>4.87</v>
@@ -4559,20 +4589,17 @@
       <c r="K33">
         <v>0.16</v>
       </c>
-      <c r="L33">
-        <v>0.16</v>
-      </c>
-      <c r="N33">
+      <c r="M33">
         <v>0.16</v>
       </c>
       <c r="O33">
         <v>0.16</v>
       </c>
       <c r="P33">
+        <v>0.16</v>
+      </c>
+      <c r="Q33">
         <v>198.19</v>
-      </c>
-      <c r="Q33">
-        <v>0.01</v>
       </c>
       <c r="R33">
         <v>0.01</v>
@@ -4583,10 +4610,13 @@
       <c r="T33">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="U33">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34">
         <v>0.01</v>
@@ -4606,28 +4636,28 @@
       <c r="K34">
         <v>-0.05</v>
       </c>
-      <c r="L34">
-        <v>-0.05</v>
-      </c>
-      <c r="N34">
+      <c r="M34">
         <v>-0.05</v>
       </c>
       <c r="O34">
         <v>-0.05</v>
       </c>
       <c r="P34">
+        <v>-0.05</v>
+      </c>
+      <c r="Q34">
         <v>198.19</v>
       </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4657,19 +4687,19 @@
         <v>-0.03</v>
       </c>
       <c r="L35">
-        <v>-21.14</v>
-      </c>
-      <c r="N35">
+        <v>-21.1</v>
+      </c>
+      <c r="M35">
         <v>-21.14</v>
       </c>
       <c r="O35">
         <v>-21.14</v>
       </c>
       <c r="P35">
+        <v>-21.14</v>
+      </c>
+      <c r="Q35">
         <v>198.19</v>
-      </c>
-      <c r="Q35">
-        <v>-1.07</v>
       </c>
       <c r="R35">
         <v>-1.07</v>
@@ -4680,10 +4710,13 @@
       <c r="T35">
         <v>-1.07</v>
       </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="U35">
+        <v>-1.07</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B36">
         <v>5.46</v>
@@ -4710,19 +4743,19 @@
         <v>-0.78</v>
       </c>
       <c r="L36">
-        <v>101.05</v>
-      </c>
-      <c r="N36">
+        <v>101.82</v>
+      </c>
+      <c r="M36">
         <v>101.05</v>
       </c>
       <c r="O36">
         <v>101.05</v>
       </c>
       <c r="P36">
+        <v>101.05</v>
+      </c>
+      <c r="Q36">
         <v>198.19</v>
-      </c>
-      <c r="Q36">
-        <v>5.1</v>
       </c>
       <c r="R36">
         <v>5.1</v>
@@ -4733,10 +4766,13 @@
       <c r="T36">
         <v>5.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B37">
         <v>3.67</v>
@@ -4762,28 +4798,28 @@
       <c r="K37">
         <v>0.08</v>
       </c>
-      <c r="L37">
-        <v>0.08</v>
-      </c>
-      <c r="N37">
+      <c r="M37">
         <v>0.08</v>
       </c>
       <c r="O37">
         <v>0.08</v>
       </c>
       <c r="P37">
+        <v>0.08</v>
+      </c>
+      <c r="Q37">
         <v>198.19</v>
       </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B38">
         <v>1.48</v>
@@ -4806,28 +4842,28 @@
       <c r="K38">
         <v>0.04</v>
       </c>
-      <c r="L38">
-        <v>0.04</v>
-      </c>
-      <c r="N38">
+      <c r="M38">
         <v>0.04</v>
       </c>
       <c r="O38">
         <v>0.04</v>
       </c>
       <c r="P38">
+        <v>0.04</v>
+      </c>
+      <c r="Q38">
         <v>198.19</v>
       </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B39">
         <v>24.8</v>
@@ -4850,20 +4886,17 @@
       <c r="K39">
         <v>0.35</v>
       </c>
-      <c r="L39">
-        <v>0.35</v>
-      </c>
-      <c r="N39">
+      <c r="M39">
         <v>0.35</v>
       </c>
       <c r="O39">
         <v>0.35</v>
       </c>
       <c r="P39">
+        <v>0.35</v>
+      </c>
+      <c r="Q39">
         <v>198.19</v>
-      </c>
-      <c r="Q39">
-        <v>0.02</v>
       </c>
       <c r="R39">
         <v>0.02</v>
@@ -4874,10 +4907,13 @@
       <c r="T39">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="U39">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B40">
         <v>2.56</v>
@@ -4903,28 +4939,28 @@
       <c r="K40">
         <v>0.18</v>
       </c>
-      <c r="L40">
-        <v>0.18</v>
-      </c>
-      <c r="N40">
+      <c r="M40">
         <v>0.18</v>
       </c>
       <c r="O40">
         <v>0.18</v>
       </c>
       <c r="P40">
+        <v>0.18</v>
+      </c>
+      <c r="Q40">
         <v>198.19</v>
       </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B41">
         <v>0.58</v>
@@ -4947,31 +4983,31 @@
       <c r="K41">
         <v>0.03</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>0.03</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>0.1</v>
-      </c>
-      <c r="N41">
-        <v>-0.07000000000000001</v>
       </c>
       <c r="O41">
         <v>-0.07000000000000001</v>
       </c>
       <c r="P41">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="Q41">
         <v>198.19</v>
       </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B42">
         <v>3.62</v>
@@ -4997,28 +5033,28 @@
       <c r="K42">
         <v>0.14</v>
       </c>
-      <c r="L42">
-        <v>0.14</v>
-      </c>
-      <c r="N42">
+      <c r="M42">
         <v>0.14</v>
       </c>
       <c r="O42">
         <v>0.14</v>
       </c>
       <c r="P42">
+        <v>0.14</v>
+      </c>
+      <c r="Q42">
         <v>198.19</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B43">
         <v>16.05</v>
@@ -5044,20 +5080,17 @@
       <c r="K43">
         <v>0.6899999999999999</v>
       </c>
-      <c r="L43">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="N43">
+      <c r="M43">
         <v>0.6899999999999999</v>
       </c>
       <c r="O43">
         <v>0.6899999999999999</v>
       </c>
       <c r="P43">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Q43">
         <v>198.19</v>
-      </c>
-      <c r="Q43">
-        <v>0.02</v>
       </c>
       <c r="R43">
         <v>0.02</v>
@@ -5068,10 +5101,13 @@
       <c r="T43">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="U43">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B44">
         <v>20.32</v>
@@ -5097,20 +5133,17 @@
       <c r="K44">
         <v>1.94</v>
       </c>
-      <c r="L44">
-        <v>1.94</v>
-      </c>
-      <c r="N44">
+      <c r="M44">
         <v>1.94</v>
       </c>
       <c r="O44">
         <v>1.94</v>
       </c>
       <c r="P44">
+        <v>1.94</v>
+      </c>
+      <c r="Q44">
         <v>198.19</v>
-      </c>
-      <c r="Q44">
-        <v>0.05</v>
       </c>
       <c r="R44">
         <v>0.05</v>
@@ -5121,10 +5154,13 @@
       <c r="T44">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="U44">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B45">
         <v>4.23</v>
@@ -5150,28 +5186,28 @@
       <c r="K45">
         <v>0.4</v>
       </c>
-      <c r="L45">
-        <v>0.4</v>
-      </c>
-      <c r="N45">
+      <c r="M45">
         <v>0.4</v>
       </c>
       <c r="O45">
         <v>0.4</v>
       </c>
       <c r="P45">
+        <v>0.4</v>
+      </c>
+      <c r="Q45">
         <v>198.19</v>
       </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B46">
         <v>47.06</v>
@@ -5200,23 +5236,20 @@
       <c r="K46">
         <v>1.22</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>1.22</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>0.15</v>
-      </c>
-      <c r="N46">
-        <v>1.07</v>
       </c>
       <c r="O46">
         <v>1.07</v>
       </c>
       <c r="P46">
+        <v>1.07</v>
+      </c>
+      <c r="Q46">
         <v>198.19</v>
-      </c>
-      <c r="Q46">
-        <v>0.03</v>
       </c>
       <c r="R46">
         <v>0.03</v>
@@ -5225,6 +5258,9 @@
         <v>0.03</v>
       </c>
       <c r="T46">
+        <v>0.03</v>
+      </c>
+      <c r="U46">
         <v>0.03</v>
       </c>
     </row>
@@ -5243,58 +5279,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:18">
